--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1319537.21407572</v>
+        <v>1315441.572570955</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7331231394051</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>249.9122829682539</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.43460382793023</v>
+        <v>66.40055121331423</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>141.8253782118881</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>130.6528593994778</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.36610313819087</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>154.7441876257465</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.52634901049003</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>357.0621555633472</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>70.64363915037529</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>100.5858322992708</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>167.3637267182081</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>217.0479268348176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>27.77749086859478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>19.865078448883</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>187.5707271127946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060555</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987.1783726748436</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="C2" t="n">
-        <v>618.2158557344319</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D2" t="n">
-        <v>618.2158557344319</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E2" t="n">
-        <v>618.2158557344319</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
         <v>355.3059305704328</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000045</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738965</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738965</v>
+        <v>1163.744434193592</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222185</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1251.931324492174</v>
+        <v>1864.837469676535</v>
       </c>
       <c r="C4" t="n">
-        <v>1082.995141564267</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="D4" t="n">
-        <v>1082.995141564267</v>
+        <v>1545.784647336293</v>
       </c>
       <c r="E4" t="n">
-        <v>1082.995141564267</v>
+        <v>1397.8715537539</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564267</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
         <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
         <v>2508.006390496681</v>
@@ -4512,28 +4512,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2171.779089400921</v>
+        <v>2495.268064548322</v>
       </c>
       <c r="U4" t="n">
-        <v>2171.779089400921</v>
+        <v>2495.268064548322</v>
       </c>
       <c r="V4" t="n">
-        <v>2171.779089400921</v>
+        <v>2495.268064548322</v>
       </c>
       <c r="W4" t="n">
-        <v>1882.361919363961</v>
+        <v>2495.268064548322</v>
       </c>
       <c r="X4" t="n">
-        <v>1654.372368465944</v>
+        <v>2267.278513650305</v>
       </c>
       <c r="Y4" t="n">
-        <v>1433.579789322413</v>
+        <v>2046.485934506775</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1361.711694912182</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>975.9234423139378</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>564.9375375243303</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2305.667535674628</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.667535674628</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.604648331057</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.835993060943</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>2106.577233583054</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>432.2782146565802</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>284.3651210741871</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,25 +4725,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1480.138859846471</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1191.020522350309</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>936.3360341444215</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>646.9188641074609</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>418.9293132094435</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.1367340659135</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,10 +4828,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.2614681692856</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>529.3252852413788</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>529.3252852413788</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>381.4121916589856</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>381.4121916589856</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9099329995254</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5126,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127263</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>113.8823988549244</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.3777707160738</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>954.8188146898436</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.0262355463135</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2951.54259528685</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>2782.606412358944</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>2632.489772946608</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>2484.576679364215</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4634.751540034345</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4415.150075057287</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>4126.074848401485</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3871.390360195598</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3581.973190158637</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3353.98363926062</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>3133.19106011709</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7171,52 +7171,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>255.524048747157</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.84813034729837</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>84.77391660561989</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>8.661728554219565</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.35027805667497</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.4693302300331</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>61.40075786968251</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>32.89260457060011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.13892827624252</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>86.99395161137546</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.505489761039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.4162454698826</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819089</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26435,7 +26435,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26447,19 +26447,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892968</v>
+        <v>-851790.7677892965</v>
       </c>
       <c r="C6" t="n">
-        <v>262961.0157866228</v>
+        <v>262961.0157866229</v>
       </c>
       <c r="D6" t="n">
-        <v>103539.745788731</v>
+        <v>103539.7457887306</v>
       </c>
       <c r="E6" t="n">
-        <v>48415.76782598467</v>
+        <v>48068.38857162798</v>
       </c>
       <c r="F6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.850378983</v>
       </c>
       <c r="G6" t="n">
-        <v>373828.2296333401</v>
+        <v>373480.8503789828</v>
       </c>
       <c r="H6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.8503789829</v>
       </c>
       <c r="I6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.850378983</v>
       </c>
       <c r="J6" t="n">
-        <v>206223.0518233574</v>
+        <v>205875.6725690005</v>
       </c>
       <c r="K6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.850378983</v>
       </c>
       <c r="L6" t="n">
-        <v>325534.2596251491</v>
+        <v>325186.8803707921</v>
       </c>
       <c r="M6" t="n">
-        <v>288773.2016978281</v>
+        <v>288425.8224434711</v>
       </c>
       <c r="N6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.850378983</v>
       </c>
       <c r="O6" t="n">
-        <v>373828.2296333399</v>
+        <v>373480.8503789829</v>
       </c>
       <c r="P6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.850378983</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,28 +26804,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>158.1429226023063</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>119.8188177102151</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3140921692817</v>
+        <v>154.3481447838977</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>269.7223245610659</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>76.00532558075597</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.94049690661332</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>66.00450837146548</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.2074926529905</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>24.86821450891455</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>95.38216910865293</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440323</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850072</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8360547723487</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315441.572570955</v>
+        <v>1317202.10287374</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>246.336074505891</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>249.9122829682539</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.40055121331423</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>176.1581058090401</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>141.8253782118881</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>157.9206545937546</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>85.36610313819087</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>357.0621555633472</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991755</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.5702261485543</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V16" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>19.865078448883</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>59.44001103519371</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>43.7384661432547</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1163.744434193592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.744434193592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.744434193592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4333,7 +4333,7 @@
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087292</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656474</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1163.744434193592</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y2" t="n">
-        <v>1163.744434193592</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434118</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1864.837469676535</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1695.901286748629</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1545.784647336293</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.8715537539</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255989</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2495.268064548322</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>2495.268064548322</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>2495.268064548322</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W4" t="n">
-        <v>2495.268064548322</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X4" t="n">
-        <v>2267.278513650305</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>2046.485934506775</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1719.977393518933</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>1719.977393518933</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>1361.711694912182</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>975.9234423139378</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>564.9375375243303</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2402.82351567919</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2071.760628335619</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583054</v>
+        <v>2071.760628335619</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583054</v>
+        <v>2071.760628335619</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.577233583054</v>
+        <v>1681.621296359807</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751.3310369968228</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>582.3948540689159</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>432.2782146565802</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>284.3651210741871</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>137.4751735762767</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1153.772080970593</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>932.9795018270626</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140707</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140707</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.236214140707</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,10 +4828,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
         <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204829</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1821.668057029347</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1599.901441598873</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,7 +5317,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5904,34 +5904,34 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2437.724555511392</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,28 +6238,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978464</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>422.7903292978464</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>422.7903292978464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>255.5942300127263</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>113.8823988549244</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,52 +7171,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V16" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>61.40075786968251</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>86.99395161137546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26334,22 +26334,22 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819089</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,37 +26420,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892965</v>
+        <v>-851790.7677892967</v>
       </c>
       <c r="C6" t="n">
         <v>262961.0157866229</v>
@@ -26530,40 +26530,40 @@
         <v>103539.7457887306</v>
       </c>
       <c r="E6" t="n">
-        <v>48068.38857162798</v>
+        <v>48381.0299005491</v>
       </c>
       <c r="F6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="G6" t="n">
-        <v>373480.8503789828</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="H6" t="n">
-        <v>373480.8503789829</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="I6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="J6" t="n">
-        <v>205875.6725690005</v>
+        <v>206188.3138979216</v>
       </c>
       <c r="K6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="L6" t="n">
-        <v>325186.8803707921</v>
+        <v>325499.5216997134</v>
       </c>
       <c r="M6" t="n">
-        <v>288425.8224434711</v>
+        <v>288738.4637723925</v>
       </c>
       <c r="N6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="O6" t="n">
-        <v>373480.8503789829</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="P6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.491707904</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,28 +26804,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,43 +26965,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>136.3977671575896</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>119.8188177102151</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>154.3481447838977</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>49.55154957999704</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>269.7223245610659</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>93.1245955347074</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.94049690661332</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>24.86821450891455</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440323</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>85.19879918288757</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>744.5154887882966</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34795,7 +34795,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,10 +35026,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>602.3814548662783</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
